--- a/Assets/06.Table/GuildBook.xlsx
+++ b/Assets/06.Table/GuildBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C2CA42-3DA2-4DF6-9ABB-2677BE81B935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB9FA5C-7052-490E-BF1F-FF31A7BA144E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildBook" sheetId="1" r:id="rId1"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -607,6 +607,258 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6500</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>7000</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7500</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>8000</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>8500</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>9000</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>9500</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>10500</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>11000</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>11500</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>12000</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>12500</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>13000</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>13500</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>14000</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>14500</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>15000</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>110000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
